--- a/regions/11/ckhovrebis done/kharjebi.xlsx
+++ b/regions/11/ckhovrebis done/kharjebi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -328,16 +328,15 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -353,25 +352,25 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -387,18 +386,6 @@
     <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="166" fontId="18" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -411,16 +398,6 @@
     <xf numFmtId="166" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -431,6 +408,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -741,2404 +728,2765 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="9">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="8">
         <v>2011</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>2012</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>2013</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>2014</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>2015</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>2016</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>2017</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>2018</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>2019</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>2020</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="9">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="M2" s="9">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>60.859541894372541</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>60.128064840729202</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>62.029060831667117</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>65.570805798775041</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>72.879611116906588</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>65.718465672713663</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>73.494776785910631</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>71.647344362757991</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="14">
         <v>19.43576578420997</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <v>20.68756852859622</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="14">
         <v>24.429118134843307</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="M3" s="18">
+        <v>28.266251643494172</v>
+      </c>
+      <c r="N3" s="18">
+        <v>29.566875770597623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>46.322136884933236</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>47.04286999090683</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>51.006999099935726</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>53.732500418512217</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>59.8480878414179</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>53.983063028196085</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>62.835602486689382</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>61.614026895858487</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <v>17.95111760183342</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <v>19.072738653793404</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="15">
         <v>22.508180521997556</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="M4" s="19">
+        <v>26.0057153070554</v>
+      </c>
+      <c r="N4" s="19">
+        <v>27.45031254767725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>20.464990170762995</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>20.6125809628093</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>21.945034199092195</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>22.637259344893483</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>24.849549657031801</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>23.964462976821384</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>26.81280616592332</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>26.414290276586172</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <v>7.1365063808993119</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="16">
         <v>8.6959796025898974</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="16">
         <v>10.905248028509641</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="M5" s="20">
+        <v>11.963713414472272</v>
+      </c>
+      <c r="N5" s="20">
+        <v>11.894815743715952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>1.7375735329822257</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>1.7766589837021778</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>1.8588510266187175</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>2.2179010977669167</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>2.598923269313731</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>2.2072349790719685</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>2.7810110248778286</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>2.861314950062952</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="16">
         <v>0.78360736302560174</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="16">
         <v>0.75860170975112917</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="16">
         <v>0.81041627508574887</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
-      <c r="A7" s="12" t="s">
+      <c r="M6" s="20">
+        <v>1.162159804678599</v>
+      </c>
+      <c r="N6" s="20">
+        <v>1.3852272667204539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
+      <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>1.7757306266165667</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>1.7587812720459894</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>2.5609160337139292</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>2.472432310189312</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>2.8139563093052828</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>2.4388504598428669</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>3.2608532248051687</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>2.4043292203969866</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="16">
         <v>0.74672238773307487</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="16">
         <v>0.64261999143056392</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="16">
         <v>0.84721218928549635</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="A8" s="12" t="s">
+      <c r="M7" s="20">
+        <v>1.2582783917002962</v>
+      </c>
+      <c r="N7" s="20">
+        <v>1.1666008284227107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
+      <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>5.5918173009114804</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>5.0845057348848961</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>6.7239425190910058</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>6.3292361954948388</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>8.200450682068734</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>7.2584222509476852</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>8.3318817049421607</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>7.5761131025100719</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="16">
         <v>1.9155066423657736</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="16">
         <v>2.0440979016644798</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="16">
         <v>2.5425319085269922</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1">
-      <c r="A9" s="13" t="s">
+      <c r="M8" s="20">
+        <v>2.6015288192753676</v>
+      </c>
+      <c r="N8" s="20">
+        <v>2.6003483964557641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1">
+      <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>5.2961066552772866</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>6.4838486311147854</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>5.8919416853188693</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>5.7994914020517552</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>6.5544283337735099</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>6.6603370914307778</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>8.355027185970048</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>7.9067877813005598</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="16">
         <v>2.7167452605134392</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="16">
         <v>3.0860540157683052</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="16">
         <v>3.2109644318020423</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
-      <c r="A10" s="12" t="s">
+      <c r="M9" s="20">
+        <v>3.8035621747910819</v>
+      </c>
+      <c r="N9" s="20">
+        <v>4.6413654056158711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>3.9060427606184662</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>3.9931771986616882</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>4.7725321608712221</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>5.3190832558498675</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>6.8324918751056485</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>5.0753863129360663</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>5.9224157127456873</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>6.592945820832762</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="16">
         <v>2.4814135723922632</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="16">
         <v>1.7335998739428891</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="16">
         <v>1.8005247439166321</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
-      <c r="A11" s="12" t="s">
+      <c r="M10" s="20">
+        <v>2.4483181605204822</v>
+      </c>
+      <c r="N10" s="20">
+        <v>2.7840281118194707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
+      <c r="A11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>0.91497812986159144</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>0.88852743808435486</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>0.80633096013303696</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>0.57550677810330442</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>0.59599952825573277</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>0.70052390037827972</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>0.76075069234593717</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>0.62200282579739896</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <v>0.22592210135650631</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="16">
         <v>0.18655121436564126</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="16">
         <v>0.28522847329902651</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="M11" s="20">
+        <v>0.19457348774592084</v>
+      </c>
+      <c r="N11" s="20">
+        <v>0.1204351992588043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
+      <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>6.634897707902633</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>6.4447897696035898</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>6.4474505150967509</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>8.3815900341627358</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>7.4022881865635641</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>5.6778450567671124</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>6.6108567750790614</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>7.2362429183715884</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <v>1.9446938935474551</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="16">
         <v>1.9252343442804978</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="16">
         <v>2.1060544715719773</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
-      <c r="A13" s="11" t="s">
+      <c r="M12" s="20">
+        <v>2.5735810538713788</v>
+      </c>
+      <c r="N12" s="20">
+        <v>2.8574915956682165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
+      <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>14.537405009439135</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>13.085194849822342</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>11.022061731731457</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>11.838305380262884</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>13.031523275488752</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>11.73540264451767</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>10.659174299221425</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>10.033317466899504</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="15">
         <v>1.4846481823765425</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="15">
         <v>1.6148298748028167</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="15">
         <v>1.9209376128457427</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
-      <c r="A14" s="11" t="s">
+      <c r="M13" s="19">
+        <v>2.2605363364387761</v>
+      </c>
+      <c r="N13" s="19">
+        <v>2.1165632229203797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
+      <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>13.724724851318554</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>16.826489415062365</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>22.768763991994849</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>27.638819128559302</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>29.129851072473674</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>21.695687476175532</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>27.772126431021988</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>26.455269419281002</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="15">
         <v>5.6214390755443562</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <v>4.4349930106137601</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="15">
         <v>6.0371054673296616</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="A15" s="12" t="s">
+      <c r="M14" s="19">
+        <v>7.5597048036816927</v>
+      </c>
+      <c r="N14" s="19">
+        <v>8.4964640593579617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
+      <c r="A15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>2.0216700501379403</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>1.8611505503359786</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>2.3167737416428191</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>2.8053816156736309</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>3.5338564106132573</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>3.4761092796086435</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>4.0275933481006643</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>4.5624988723011013</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="16">
         <v>0.36650246165657047</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="16">
         <v>0.39092559199968974</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="16">
         <v>0.43222852627309161</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="12" t="s">
+      <c r="M15" s="20">
+        <v>0.43516759398714699</v>
+      </c>
+      <c r="N15" s="20">
+        <v>0.45982203695297241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
+      <c r="A16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>3.107533203228277</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>3.1615356671094483</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>3.21996177215172</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>3.583885225088014</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>4.0026750228800543</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>4.3047544324833691</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>4.4647925720081343</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>3.5348150584926605</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="16">
         <v>0.77972175868097937</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="16">
         <v>0.50336393250338241</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="16">
         <v>0.49517810371271764</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
-      <c r="A17" s="12" t="s">
+      <c r="M16" s="20">
+        <v>0.69763996672439565</v>
+      </c>
+      <c r="N16" s="20">
+        <v>0.71430339300028478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
+      <c r="A17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>4.9597712204717963</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>9.3629012797899769</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>14.764765754921655</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>16.238969596278018</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>16.772239924521251</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>11.946149896212921</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>14.96149531551425</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>16.058527166526797</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="16">
         <v>3.8468063475240077</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="16">
         <v>3.2405453790791836</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="16">
         <v>4.2761948588129686</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
-      <c r="A18" s="12" t="s">
+      <c r="M17" s="20">
+        <v>5.6762236359081282</v>
+      </c>
+      <c r="N17" s="20">
+        <v>5.6663751595751437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
+      <c r="A18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>3.6357503774805728</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>2.4409019178269524</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>2.4672627232787003</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>5.0105826915196294</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>4.8210797144591453</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>1.9686738678706668</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>4.3182451953989647</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>2.2994283219604492</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="16">
         <v>0.62840850768280032</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="16">
         <v>0.30015810703150425</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="16">
         <v>0.83350397853088376</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="M18" s="20">
+        <v>0.7506736070620218</v>
+      </c>
+      <c r="N18" s="20">
+        <v>1.6559634698295596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1">
+      <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>60.046861736251799</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>63.869359405969092</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>73.775763091930543</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>81.371319547071408</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>88.977938913891563</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>75.67875050437172</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>90.607728917711128</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>88.069296315139496</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="15">
         <v>23.572556677377779</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="15">
         <v>23.50773166440716</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19" s="15">
         <v>28.545285989327216</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
-      <c r="A20" s="14" t="s">
+      <c r="M19" s="19">
+        <v>33.565420110737101</v>
+      </c>
+      <c r="N19" s="19">
+        <v>35.946776607035204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="A20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>74.584266745690954</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>76.954554255791479</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>84.797824823662182</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>93.209624927334502</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>102.00946218938029</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>87.414153148889284</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <v>101.26690321693249</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <v>98.102613782039001</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="17">
         <v>25.057204859754322</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="17">
         <v>25.122561539209975</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="17">
         <v>30.466223602172956</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1">
-      <c r="A23" s="27" t="s">
+      <c r="M20" s="21">
+        <v>35.825956447175869</v>
+      </c>
+      <c r="N20" s="21">
+        <v>38.063339829955581</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="1:14" ht="15">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="1:14" ht="30" customHeight="1">
+      <c r="A23" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="5"/>
-      <c r="B24" s="9">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="4"/>
+      <c r="B24" s="8">
         <v>2011</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>2012</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>2013</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>2014</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>2015</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>2016</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>2017</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>2018</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <v>2019</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="9">
         <v>2020</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="9">
         <v>2021</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15">
-      <c r="A25" s="11" t="s">
+      <c r="M24" s="9">
+        <v>2022</v>
+      </c>
+      <c r="N24" s="9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15">
+      <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>573.27628190477765</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>557.10000201314779</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>570.71084856402604</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>608.85032070761338</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>678.01025295545287</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>619.35594380374778</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>677.2917880495005</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>688.14963390996456</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="14">
         <v>669.08172991842957</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="14">
         <v>700.40310046842865</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="14">
         <v>787.28930239969509</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15">
-      <c r="A26" s="11" t="s">
+      <c r="M25" s="18">
+        <v>880.89484213461105</v>
+      </c>
+      <c r="N25" s="18">
+        <v>896.8070306718331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15">
+      <c r="A26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>436.3388480539017</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>435.86273790880603</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>469.30015300453249</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>498.92707148711435</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>556.77598376820561</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>508.7570229919063</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <v>579.06206974882753</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <v>591.78285572497657</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="15">
         <v>617.9722966594743</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="15">
         <v>645.73104708151084</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="15">
         <v>725.38229352516601</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15">
-      <c r="A27" s="12" t="s">
+      <c r="M26" s="19">
+        <v>810.44705781775747</v>
+      </c>
+      <c r="N26" s="19">
+        <v>832.60854064861576</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15">
+      <c r="A27" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>192.77327940908563</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>190.98018415019345</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>201.9097004147543</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>210.19571811236295</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>231.17918977046747</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>225.85026039221435</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <v>247.09366059635778</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>253.70073860368552</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="16">
         <v>245.67624903080738</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="16">
         <v>294.41309484220329</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L27" s="16">
         <v>351.44883517573106</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15">
-      <c r="A28" s="12" t="s">
+      <c r="M27" s="20">
+        <v>372.8394402096435</v>
+      </c>
+      <c r="N27" s="20">
+        <v>360.78733750146449</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15">
+      <c r="A28" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>16.367354461080911</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>16.461143827245063</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>17.102732695480132</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>20.59407045899658</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>24.178183668030641</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>20.801826239643486</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <v>25.628432549862058</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>27.482007224407518</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="16">
         <v>26.975904929660032</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="16">
         <v>25.683394778651436</v>
       </c>
-      <c r="L28" s="21">
+      <c r="L28" s="16">
         <v>26.117687111905688</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15">
-      <c r="A29" s="12" t="s">
+      <c r="M28" s="20">
+        <v>36.217769182465041</v>
+      </c>
+      <c r="N28" s="20">
+        <v>42.01598983645745</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15">
+      <c r="A29" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>16.726781365820891</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>16.295502820403506</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>23.562222982359728</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>22.957491320241633</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <v>26.17866917562456</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>22.984659073976985</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <v>30.0504227345128</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>23.092806684335937</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="16">
         <v>25.706129231047093</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="16">
         <v>21.756690922802406</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="16">
         <v>27.303527282704145</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15">
-      <c r="A30" s="12" t="s">
+      <c r="M29" s="20">
+        <v>39.21322710906167</v>
+      </c>
+      <c r="N29" s="20">
+        <v>35.384726916513351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15">
+      <c r="A30" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>52.673025980396979</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>47.109085626542935</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>61.864985368391665</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <v>58.769408740943931</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <v>76.290056383250018</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <v>68.40614609218396</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="6">
         <v>76.782532100145303</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <v>72.766122796628693</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="16">
         <v>65.941857510217389</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="16">
         <v>69.205450897131612</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L30" s="16">
         <v>81.93943643582206</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="30">
-      <c r="A31" s="13" t="s">
+      <c r="M30" s="20">
+        <v>81.074538904831158</v>
+      </c>
+      <c r="N30" s="20">
+        <v>78.872409186255439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="30">
+      <c r="A31" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>49.887531805250923</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>60.074311305628683</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>54.209994377367963</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>53.850523217852867</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <v>60.976856825313853</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <v>62.769562908815288</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <v>76.995829492370973</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <v>75.942146432631745</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="16">
         <v>93.524723380273514</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="16">
         <v>104.48215786545295</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="16">
         <v>103.48134278077075</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15">
-      <c r="A32" s="12" t="s">
+      <c r="M31" s="20">
+        <v>118.53493500907594</v>
+      </c>
+      <c r="N31" s="20">
+        <v>140.77947091767436</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15">
+      <c r="A32" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>36.793600494969915</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>36.997682052564521</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>43.910641928329767</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>49.389747567433247</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <v>63.563724799868083</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <v>47.832380866467979</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="6">
         <v>54.578076199109617</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>63.323118160853646</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="16">
         <v>85.423363508944945</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="16">
         <v>58.693157922492162</v>
       </c>
-      <c r="L32" s="21">
+      <c r="L32" s="16">
         <v>58.026403645315511</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15">
-      <c r="A33" s="12" t="s">
+      <c r="M32" s="20">
+        <v>76.29985279648443</v>
+      </c>
+      <c r="N32" s="20">
+        <v>84.443686361701282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15">
+      <c r="A33" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>8.6187842363588647</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>8.2324059298551031</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>7.4188101562556472</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <v>5.3438032695969717</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <v>5.5446754547824195</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <v>6.6020050382280395</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="6">
         <v>7.0107049672358706</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>5.9741365248135025</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="16">
         <v>7.7774321876848109</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="16">
         <v>6.3159210207441321</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L33" s="16">
         <v>9.1921994289197855</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15">
-      <c r="A34" s="12" t="s">
+      <c r="M33" s="20">
+        <v>6.0637251777588688</v>
+      </c>
+      <c r="N33" s="20">
+        <v>3.6529775507449829</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15">
+      <c r="A34" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>62.498490300937682</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>59.712422196372351</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>59.321065081593282</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <v>77.826308799686146</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <v>68.864627690869455</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="6">
         <v>53.510182380376783</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="6">
         <v>60.922411109231511</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <v>69.501779297619947</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="16">
         <v>66.946636880838724</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="16">
         <v>65.181178832032757</v>
       </c>
-      <c r="L34" s="21">
+      <c r="L34" s="16">
         <v>67.872861663997</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15">
-      <c r="A35" s="11" t="s">
+      <c r="M34" s="20">
+        <v>80.203569428436936</v>
+      </c>
+      <c r="N34" s="20">
+        <v>86.671942377804214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15">
+      <c r="A35" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>136.93743385087436</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>121.23726410434153</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>101.41069555949416</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>109.92324922049949</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>121.23426918724793</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <v>110.59892081184238</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="5">
         <v>98.229718300674591</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="5">
         <v>96.366778184987936</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="15">
         <v>51.109433258954319</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="15">
         <v>54.672053386918009</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="15">
         <v>61.907008874528913</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15">
-      <c r="A36" s="11" t="s">
+      <c r="M35" s="19">
+        <v>70.447784316853657</v>
+      </c>
+      <c r="N35" s="19">
+        <v>64.198490023217786</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15">
+      <c r="A36" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>129.28226187745153</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>155.90119708385697</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>209.48859203090694</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>256.63713729620537</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>270.99949343199597</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <v>204.4684527511275</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <v>255.93428527848292</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="5">
         <v>254.09433005210838</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="15">
         <v>193.51962886648678</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K36" s="15">
         <v>150.15214818000021</v>
       </c>
-      <c r="L36" s="20">
+      <c r="L36" s="15">
         <v>194.56079116946157</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15">
-      <c r="A37" s="12" t="s">
+      <c r="M36" s="19">
+        <v>235.59207827105604</v>
+      </c>
+      <c r="N36" s="19">
+        <v>257.71030944906471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15">
+      <c r="A37" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>19.043447477682871</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>17.243977135891651</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>21.315942725813649</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>26.04905453887287</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <v>32.876010754567851</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="6">
         <v>32.760182721838603</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="6">
         <v>37.116323357475906</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <v>43.82133010809293</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J37" s="16">
         <v>12.616950820829638</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K37" s="16">
         <v>13.235267175577452</v>
       </c>
-      <c r="L37" s="21">
+      <c r="L37" s="16">
         <v>13.929643020614638</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="15">
-      <c r="A38" s="12" t="s">
+      <c r="M37" s="20">
+        <v>13.561645662899066</v>
+      </c>
+      <c r="N37" s="20">
+        <v>13.947081822129702</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15">
+      <c r="A38" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>29.271910783263341</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>29.292336801071617</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>29.625905836547279</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <v>33.277761987101854</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="6">
         <v>37.237502549349081</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="6">
         <v>40.569651422660975</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="6">
         <v>41.14533680637328</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="6">
         <v>33.950758539287165</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38" s="16">
         <v>26.842141901974699</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38" s="16">
         <v>17.042005613275094</v>
       </c>
-      <c r="L38" s="21">
+      <c r="L38" s="16">
         <v>15.958350263964201</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="15">
-      <c r="A39" s="12" t="s">
+      <c r="M38" s="20">
+        <v>21.741384606116583</v>
+      </c>
+      <c r="N38" s="20">
+        <v>21.66587737729224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15">
+      <c r="A39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>46.7193658687941</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>86.749379605622494</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>135.84619660303727</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <v>150.78512039331625</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <v>156.03473261695527</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="6">
         <v>112.58508347771777</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="6">
         <v>137.87779699851382</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <v>154.236974015784</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J39" s="16">
         <v>132.42739567038748</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K39" s="16">
         <v>109.71265316068114</v>
       </c>
-      <c r="L39" s="21">
+      <c r="L39" s="16">
         <v>137.81105190687302</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="15">
-      <c r="A40" s="12" t="s">
+      <c r="M39" s="20">
+        <v>176.89491294205209</v>
+      </c>
+      <c r="N39" s="20">
+        <v>171.86953132818292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15">
+      <c r="A40" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <v>34.247537747711533</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>22.615503541271135</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <v>22.700546865509143</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <v>46.525200376914292</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="6">
         <v>44.851247511124086</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="6">
         <v>18.553535128910802</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="6">
         <v>39.794828116120129</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <v>22.08526738894437</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J40" s="16">
         <v>21.633140473294546</v>
       </c>
-      <c r="K40" s="17">
+      <c r="K40" s="16">
         <v>10.16222223046652</v>
       </c>
-      <c r="L40" s="21">
+      <c r="L40" s="16">
         <v>26.861745978009655</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15">
-      <c r="A41" s="11" t="s">
+      <c r="M40" s="20">
+        <v>23.39413505998829</v>
+      </c>
+      <c r="N40" s="20">
+        <v>50.227818921459757</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15">
+      <c r="A41" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>565.62110993135332</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>591.76393499266203</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>678.78874503543909</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>755.56420878331869</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>827.77547720020141</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="5">
         <v>713.22547574303485</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="5">
         <v>834.99635502730814</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="5">
         <v>845.87718577708472</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J41" s="15">
         <v>811.49192552596082</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K41" s="15">
         <v>795.88319526151099</v>
       </c>
-      <c r="L41" s="20">
+      <c r="L41" s="15">
         <v>919.94308469462726</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15">
-      <c r="A42" s="14" t="s">
+      <c r="M41" s="19">
+        <v>1046.0391360888138</v>
+      </c>
+      <c r="N41" s="19">
+        <v>1090.3188500976805</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15">
+      <c r="A42" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>702.55854378222796</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>713.00119909700402</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>780.19944059493491</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="7">
         <v>865.48745800382005</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="7">
         <v>949.00974638744913</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="7">
         <v>823.82439655487622</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="7">
         <v>933.22607332798214</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="7">
         <v>942.24396396207283</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="17">
         <v>862.60135878491531</v>
       </c>
-      <c r="K42" s="18">
+      <c r="K42" s="17">
         <v>850.5552486484288</v>
       </c>
-      <c r="L42" s="22">
+      <c r="L42" s="17">
         <v>981.85009356915612</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:12" ht="15">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1">
-      <c r="A45" s="27" t="s">
+      <c r="M42" s="21">
+        <v>1116.4869204056672</v>
+      </c>
+      <c r="N42" s="21">
+        <v>1154.5173401208983</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+    </row>
+    <row r="44" spans="1:14" ht="15">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+    </row>
+    <row r="45" spans="1:14" ht="30" customHeight="1">
+      <c r="A45" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
-      <c r="A46" s="5"/>
-      <c r="B46" s="9">
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
+      <c r="A46" s="4"/>
+      <c r="B46" s="8">
         <v>2011</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>2012</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>2013</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <v>2014</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="8">
         <v>2015</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="8">
         <v>2016</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="8">
         <v>2017</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="8">
         <v>2018</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46" s="9">
         <v>2019</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K46" s="9">
         <v>2020</v>
       </c>
-      <c r="L46" s="10">
+      <c r="L46" s="9">
         <v>2021</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
-      <c r="A47" s="11" t="s">
+      <c r="M46" s="9">
+        <v>2022</v>
+      </c>
+      <c r="N46" s="9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
+      <c r="A47" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="5">
         <v>161.36822484169926</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>160.68429941402778</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>166.99033479785322</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>177.27205478084011</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <v>198.23419154645927</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="5">
         <v>179.92932344971194</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="5">
         <v>202.93884146771541</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="5">
         <v>198.84144278839267</v>
       </c>
-      <c r="J47" s="15">
+      <c r="J47" s="14">
         <v>207.56723676614325</v>
       </c>
-      <c r="K47" s="15">
+      <c r="K47" s="14">
         <v>221.62956554005405</v>
       </c>
-      <c r="L47" s="23">
+      <c r="L47" s="14">
         <v>261.58453227765506</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
-      <c r="A48" s="11" t="s">
+      <c r="M47" s="18">
+        <v>306.07412498848663</v>
+      </c>
+      <c r="N47" s="18">
+        <v>318.13548768487152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
+      <c r="A48" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="5">
         <v>122.82249861442114</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>125.71584711626622</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>137.31750477162819</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>145.26694680149802</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <v>162.7881533260921</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="5">
         <v>147.79919021206513</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="5">
         <v>173.50599497322685</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="5">
         <v>170.9961773592766</v>
       </c>
-      <c r="J48" s="16">
+      <c r="J48" s="15">
         <v>191.71170916783578</v>
       </c>
-      <c r="K48" s="16">
+      <c r="K48" s="15">
         <v>204.32960865633746</v>
       </c>
-      <c r="L48" s="24">
+      <c r="L48" s="15">
         <v>241.01532612714274</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
-      <c r="A49" s="12" t="s">
+      <c r="M48" s="19">
+        <v>281.59646555537171</v>
+      </c>
+      <c r="N48" s="19">
+        <v>295.36156059280978</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
+      <c r="A49" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="6">
         <v>54.262635446557788</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>55.084395945508547</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <v>59.078898808441828</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="6">
         <v>61.200307511715977</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="6">
         <v>67.591337427053787</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="6">
         <v>65.611842366025428</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="6">
         <v>74.037367793652976</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="6">
         <v>73.307051859941765</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J49" s="16">
         <v>76.215412662086123</v>
       </c>
-      <c r="K49" s="17">
+      <c r="K49" s="16">
         <v>93.161561186038028</v>
       </c>
-      <c r="L49" s="25">
+      <c r="L49" s="16">
         <v>116.77229563357757</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
-      <c r="A50" s="12" t="s">
+      <c r="M49" s="20">
+        <v>129.54611602314895</v>
+      </c>
+      <c r="N49" s="20">
+        <v>127.98656973124878</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
+      <c r="A50" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="6">
         <v>4.6071519407080537</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>4.7478861135814476</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="6">
         <v>5.0042697908449068</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="6">
         <v>5.9961423397540017</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="6">
         <v>7.0691301076958322</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="6">
         <v>6.0431462057680658</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="6">
         <v>7.6791192541705131</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="6">
         <v>7.9409501915642799</v>
       </c>
-      <c r="J50" s="17">
+      <c r="J50" s="16">
         <v>8.3686548221819628</v>
       </c>
-      <c r="K50" s="17">
+      <c r="K50" s="16">
         <v>8.1270337361146385</v>
       </c>
-      <c r="L50" s="25">
+      <c r="L50" s="16">
         <v>8.6778557088452501</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
-      <c r="A51" s="12" t="s">
+      <c r="M50" s="20">
+        <v>12.584160425659519</v>
+      </c>
+      <c r="N50" s="20">
+        <v>14.904853508084589</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
+      <c r="A51" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="6">
         <v>4.7083249412472092</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>4.7001102940833492</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="6">
         <v>6.8943205027659582</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="6">
         <v>6.6842728344507654</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="6">
         <v>7.6540248427970488</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="6">
         <v>6.6772817767829364</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="6">
         <v>9.0040925978441315</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="6">
         <v>6.6726868298350004</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="16">
         <v>7.9747360805866423</v>
       </c>
-      <c r="K51" s="17">
+      <c r="K51" s="16">
         <v>6.8845011588113145</v>
       </c>
-      <c r="L51" s="25">
+      <c r="L51" s="16">
         <v>9.0718626456712332</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
-      <c r="A52" s="12" t="s">
+      <c r="M51" s="20">
+        <v>13.624956806758989</v>
+      </c>
+      <c r="N51" s="20">
+        <v>12.552463316158232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
+      <c r="A52" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="6">
         <v>14.826625429637419</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>13.587668986865033</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="6">
         <v>18.101731629818548</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <v>17.111223385173002</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="6">
         <v>22.305411436250068</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="6">
         <v>19.872694706985612</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="6">
         <v>23.006565832188002</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="6">
         <v>21.025835268978827</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J52" s="16">
         <v>20.45694649634396</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K52" s="16">
         <v>21.898780866442205</v>
       </c>
-      <c r="L52" s="25">
+      <c r="L52" s="16">
         <v>27.225175154580455</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="30" customHeight="1">
-      <c r="A53" s="13" t="s">
+      <c r="M52" s="20">
+        <v>28.170012318393411</v>
+      </c>
+      <c r="N52" s="20">
+        <v>27.979388545329126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="30" customHeight="1">
+      <c r="A53" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="6">
         <v>14.042552785193228</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>17.327227768879702</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="6">
         <v>15.861876698583282</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="6">
         <v>15.679047176582602</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="6">
         <v>17.828193398432994</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="6">
         <v>18.235208849462445</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="6">
         <v>23.070476729130991</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="6">
         <v>21.943550095803122</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J53" s="16">
         <v>29.013897007362555</v>
       </c>
-      <c r="K53" s="17">
+      <c r="K53" s="16">
         <v>33.061440246224997</v>
       </c>
-      <c r="L53" s="25">
+      <c r="L53" s="16">
         <v>34.382683174105949</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
-      <c r="A54" s="12" t="s">
+      <c r="M53" s="20">
+        <v>41.185933641697908</v>
+      </c>
+      <c r="N53" s="20">
+        <v>49.940448841999888</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
+      <c r="A54" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="6">
         <v>10.356817794171647</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>10.671237837150422</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="6">
         <v>12.848280027005329</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="6">
         <v>14.3802536331265</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="6">
         <v>18.584532523597929</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="6">
         <v>13.895802590407708</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="6">
         <v>16.353382321792594</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="6">
         <v>18.297270762787925</v>
       </c>
-      <c r="J54" s="17">
+      <c r="J54" s="16">
         <v>26.500636209246313</v>
       </c>
-      <c r="K54" s="17">
+      <c r="K54" s="16">
         <v>18.572360804565101</v>
       </c>
-      <c r="L54" s="25">
+      <c r="L54" s="16">
         <v>19.279837298752241</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
-      <c r="A55" s="12" t="s">
+      <c r="M54" s="20">
+        <v>26.51100853859425</v>
+      </c>
+      <c r="N54" s="20">
+        <v>29.955756839309007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
+      <c r="A55" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="6">
         <v>2.4260517248223863</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>2.374472041914363</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <v>2.1707482780675753</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="6">
         <v>1.5558946981337796</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="6">
         <v>1.6211322046755334</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="6">
         <v>1.9179509163092217</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="6">
         <v>2.1006372275974248</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="6">
         <v>1.7262320104121036</v>
       </c>
-      <c r="J55" s="17">
+      <c r="J55" s="16">
         <v>2.4127696754335335</v>
       </c>
-      <c r="K55" s="17">
+      <c r="K55" s="16">
         <v>1.9985560184936872</v>
       </c>
-      <c r="L55" s="25">
+      <c r="L55" s="16">
         <v>3.0541977147254085</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1">
-      <c r="A56" s="12" t="s">
+      <c r="M55" s="20">
+        <v>2.1068909581259536</v>
+      </c>
+      <c r="N55" s="20">
+        <v>1.2958660613281954</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
+      <c r="A56" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="6">
         <v>17.592338552083437</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <v>17.222848128283239</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="6">
         <v>17.35737903610076</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="6">
         <v>22.659805222561371</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="6">
         <v>20.13439138558919</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="6">
         <v>15.545262800323886</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="6">
         <v>18.254353216849747</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="6">
         <v>20.08260033995359</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J56" s="16">
         <v>20.768656214594554</v>
       </c>
-      <c r="K56" s="17">
+      <c r="K56" s="16">
         <v>20.625374639647475</v>
       </c>
-      <c r="L56" s="25">
+      <c r="L56" s="16">
         <v>22.55141879688459</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1">
-      <c r="A57" s="11" t="s">
+      <c r="M56" s="20">
+        <v>27.867386842992673</v>
+      </c>
+      <c r="N56" s="20">
+        <v>30.746213749351963</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1">
+      <c r="A57" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="5">
         <v>38.545726227277669</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <v>34.968452297761466</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <v>29.672830026225203</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <v>32.005107979342249</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="5">
         <v>35.446038220367342</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="5">
         <v>32.130133237647065</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57" s="5">
         <v>29.432846494489024</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57" s="5">
         <v>27.845265429116054</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J57" s="15">
         <v>15.855527598307177</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K57" s="15">
         <v>17.299956883716654</v>
       </c>
-      <c r="L57" s="24">
+      <c r="L57" s="15">
         <v>20.569206150512223</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1">
-      <c r="A58" s="11" t="s">
+      <c r="M57" s="19">
+        <v>24.477659433115004</v>
+      </c>
+      <c r="N57" s="19">
+        <v>22.773927092061786</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1">
+      <c r="A58" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="5">
         <v>36.390916144947489</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <v>44.966567116681887</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <v>61.296487017186017</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <v>74.722129748895469</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="5">
         <v>79.23385414279474</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="5">
         <v>59.400205549617176</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="5">
         <v>76.686309007022956</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="5">
         <v>73.420780455609119</v>
       </c>
-      <c r="J58" s="16">
+      <c r="J58" s="15">
         <v>60.035019382046663</v>
       </c>
-      <c r="K58" s="16">
+      <c r="K58" s="15">
         <v>47.512861299133142</v>
       </c>
-      <c r="L58" s="24">
+      <c r="L58" s="15">
         <v>64.64471624662815</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1">
-      <c r="A59" s="12" t="s">
+      <c r="M58" s="19">
+        <v>81.858396441846224</v>
+      </c>
+      <c r="N58" s="19">
+        <v>91.42077634759157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15" customHeight="1">
+      <c r="A59" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="6">
         <v>5.3604298857950194</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="6">
         <v>4.9736786486797921</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="6">
         <v>6.2370575594834712</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="6">
         <v>7.5844082956831409</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="6">
         <v>9.6121694101175379</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="6">
         <v>9.517172753729362</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="6">
         <v>11.1212682548526</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="6">
         <v>12.662211929243977</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J59" s="16">
         <v>3.9141191594234792</v>
       </c>
-      <c r="K59" s="17">
+      <c r="K59" s="16">
         <v>4.1880547244407742</v>
       </c>
-      <c r="L59" s="25">
+      <c r="L59" s="16">
         <v>4.628259450796258</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1">
-      <c r="A60" s="12" t="s">
+      <c r="M59" s="20">
+        <v>4.7121048178886209</v>
+      </c>
+      <c r="N59" s="20">
+        <v>4.9476214230167921</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15" customHeight="1">
+      <c r="A60" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="6">
         <v>8.23958086164882</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="6">
         <v>8.4487858554501543</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="6">
         <v>8.6685577237273961</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="6">
         <v>9.68910920356441</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="6">
         <v>10.887366645124217</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="6">
         <v>11.785904383575339</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="6">
         <v>12.328492875029626</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="6">
         <v>9.8101015811852648</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J60" s="16">
         <v>8.3271579156059854</v>
       </c>
-      <c r="K60" s="17">
+      <c r="K60" s="16">
         <v>5.3926264710639638</v>
       </c>
-      <c r="L60" s="25">
+      <c r="L60" s="16">
         <v>5.3023171748912672</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1">
-      <c r="A61" s="12" t="s">
+      <c r="M60" s="20">
+        <v>7.554222083114893</v>
+      </c>
+      <c r="N60" s="20">
+        <v>7.6858055633015203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15" customHeight="1">
+      <c r="A61" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="6">
         <v>13.150764079978844</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <v>25.021115125040019</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="6">
         <v>39.748678177108864</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="6">
         <v>43.902396391010534</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="6">
         <v>45.620872160354104</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="6">
         <v>32.707134085555737</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="6">
         <v>41.312711715551231</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="6">
         <v>44.566909482112607</v>
       </c>
-      <c r="J61" s="17">
+      <c r="J61" s="16">
         <v>41.082557425069993</v>
       </c>
-      <c r="K61" s="17">
+      <c r="K61" s="16">
         <v>34.716533433370273</v>
       </c>
-      <c r="L61" s="25">
+      <c r="L61" s="16">
         <v>45.789063112976677</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1">
-      <c r="A62" s="12" t="s">
+      <c r="M61" s="20">
+        <v>61.463585781081726</v>
+      </c>
+      <c r="N61" s="20">
+        <v>60.969411810142148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15" customHeight="1">
+      <c r="A62" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="6">
         <v>9.6401413175248951</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <v>6.5229874875118972</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="6">
         <v>6.642193556866399</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="6">
         <v>13.546215858637359</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="6">
         <v>13.113445927198969</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="6">
         <v>5.3899943267569306</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="6">
         <v>11.923836161589563</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="6">
         <v>6.3815574630672627</v>
       </c>
-      <c r="J62" s="17">
+      <c r="J62" s="16">
         <v>6.7111848819470818</v>
       </c>
-      <c r="K62" s="17">
+      <c r="K62" s="16">
         <v>3.2156466702581312</v>
       </c>
-      <c r="L62" s="25">
+      <c r="L62" s="16">
         <v>8.92507650796394</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1">
-      <c r="A63" s="11" t="s">
+      <c r="M62" s="20">
+        <v>8.1284837597609751</v>
+      </c>
+      <c r="N62" s="20">
+        <v>17.817937551131081</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15" customHeight="1">
+      <c r="A63" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="5">
         <v>159.21341475936867</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <v>170.68241423294785</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="5">
         <v>198.6139917888141</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="5">
         <v>219.98907655039318</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="5">
         <v>242.02200746888681</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63" s="5">
         <v>207.19939576168261</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H63" s="5">
         <v>250.19230398024914</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63" s="5">
         <v>244.41695781488568</v>
       </c>
-      <c r="J63" s="16">
+      <c r="J63" s="15">
         <v>251.74672854988236</v>
       </c>
-      <c r="K63" s="16">
+      <c r="K63" s="15">
         <v>251.84246995547056</v>
       </c>
-      <c r="L63" s="24">
+      <c r="L63" s="15">
         <v>305.66004237377081</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1">
-      <c r="A64" s="14" t="s">
+      <c r="M63" s="19">
+        <v>363.45486199721796</v>
+      </c>
+      <c r="N63" s="19">
+        <v>386.78233694040136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15" customHeight="1">
+      <c r="A64" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="7">
         <v>197.7591409866464</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="7">
         <v>205.65086653070944</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="7">
         <v>228.28682181503979</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64" s="7">
         <v>251.994184529736</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F64" s="7">
         <v>277.4680456892541</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="7">
         <v>239.3295289993294</v>
       </c>
-      <c r="H64" s="8">
+      <c r="H64" s="7">
         <v>279.62515047473801</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I64" s="7">
         <v>272.26222324400175</v>
       </c>
-      <c r="J64" s="18">
+      <c r="J64" s="17">
         <v>267.60225614818961</v>
       </c>
-      <c r="K64" s="18">
+      <c r="K64" s="17">
         <v>269.14242683918718</v>
       </c>
-      <c r="L64" s="26">
+      <c r="L64" s="17">
         <v>326.22924852428304</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="15" customHeight="1">
-      <c r="A65" s="28" t="s">
+      <c r="M64" s="21">
+        <v>387.93252143033288</v>
+      </c>
+      <c r="N64" s="21">
+        <v>409.55626403246316</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15" customHeight="1">
+      <c r="A65" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-    </row>
-    <row r="66" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A66" s="29" t="s">
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="26"/>
+      <c r="N65" s="26"/>
+    </row>
+    <row r="66" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A66" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-    </row>
-    <row r="67" spans="1:12" ht="30" customHeight="1">
-      <c r="A67" s="30" t="s">
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+    </row>
+    <row r="67" spans="1:14" ht="15" customHeight="1">
+      <c r="A67" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-    </row>
-    <row r="68" spans="1:12" ht="45" customHeight="1">
-      <c r="A68" s="31" t="s">
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+    </row>
+    <row r="68" spans="1:14" ht="45" customHeight="1">
+      <c r="A68" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="31"/>
-      <c r="L68" s="31"/>
-    </row>
-    <row r="69" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A69" s="32"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="4"/>
-    </row>
-    <row r="70" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A70" s="32"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
-    </row>
-    <row r="71" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A71" s="32"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="32"/>
-    </row>
-    <row r="72" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A72" s="32"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="32"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23"/>
+    </row>
+    <row r="69" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A70" s="24"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+    </row>
+    <row r="71" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A71" s="24"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+    </row>
+    <row r="72" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A67:L67"/>
-    <mergeCell ref="A68:L68"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A65:N65"/>
+    <mergeCell ref="A66:N66"/>
+    <mergeCell ref="A67:N67"/>
+    <mergeCell ref="A68:N68"/>
     <mergeCell ref="A72:J72"/>
     <mergeCell ref="A70:J70"/>
     <mergeCell ref="A71:J71"/>
     <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A65:L65"/>
-    <mergeCell ref="A66:L66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
